--- a/image/messagedefinition.xlsx
+++ b/image/messagedefinition.xlsx
@@ -1079,46 +1079,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.05859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="125.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.6484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="125.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.36328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/messagedefinition.xlsx
+++ b/image/messagedefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="295">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -387,10 +387,6 @@
   </si>
   <si>
     <t>MessageDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the message definition</t>
@@ -1079,46 +1075,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="125.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="125.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.6484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2526,16 +2522,16 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2606,10 +2602,10 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -2617,7 +2613,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2640,19 +2636,19 @@
         <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2701,7 +2697,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2710,7 +2706,7 @@
         <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
@@ -2733,7 +2729,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2756,16 +2752,16 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2815,7 +2811,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2836,7 +2832,7 @@
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>41</v>
@@ -2847,7 +2843,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2870,13 +2866,13 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2927,7 +2923,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2959,7 +2955,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2985,13 +2981,13 @@
         <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3017,55 +3013,55 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3073,7 +3069,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3096,19 +3092,19 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3157,7 +3153,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3178,10 +3174,10 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3189,11 +3185,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3212,16 +3208,16 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3271,7 +3267,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>50</v>
@@ -3292,10 +3288,10 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3303,7 +3299,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3326,19 +3322,19 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3387,7 +3383,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3408,10 +3404,10 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3419,7 +3415,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3442,16 +3438,16 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3501,7 +3497,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3522,7 +3518,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3533,7 +3529,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3556,16 +3552,16 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3615,7 +3611,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3636,7 +3632,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -3647,7 +3643,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3670,19 +3666,19 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3731,7 +3727,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3752,7 +3748,7 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -3763,7 +3759,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3786,16 +3782,16 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3821,14 +3817,14 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3845,7 +3841,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3866,7 +3862,7 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -3877,7 +3873,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3900,16 +3896,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3959,7 +3955,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3980,10 +3976,10 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>118</v>
@@ -3991,11 +3987,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4014,17 +4010,17 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4073,7 +4069,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4094,7 +4090,7 @@
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4105,7 +4101,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4128,13 +4124,13 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4185,7 +4181,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4217,7 +4213,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4240,16 +4236,16 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4299,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4331,7 +4327,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4354,13 +4350,13 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4387,14 +4383,14 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4411,7 +4407,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>50</v>
@@ -4443,7 +4439,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4469,10 +4465,10 @@
         <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4499,14 +4495,14 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4555,7 +4551,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4578,13 +4574,13 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4635,7 +4631,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4647,7 +4643,7 @@
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
@@ -4667,7 +4663,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4690,13 +4686,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4747,25 +4743,25 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -4779,7 +4775,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4808,7 +4804,7 @@
         <v>95</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>97</v>
@@ -4861,7 +4857,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4879,7 +4875,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -4893,11 +4889,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4919,10 +4915,10 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>97</v>
@@ -4977,7 +4973,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5009,7 +5005,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5035,13 +5031,13 @@
         <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5067,14 +5063,14 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5091,7 +5087,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -5123,7 +5119,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5146,19 +5142,19 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5207,7 +5203,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5239,7 +5235,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5262,13 +5258,13 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5319,7 +5315,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>50</v>
@@ -5351,7 +5347,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5374,13 +5370,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5431,7 +5427,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5440,7 +5436,7 @@
         <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
@@ -5463,7 +5459,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5489,13 +5485,13 @@
         <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5509,58 +5505,58 @@
         <v>41</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="T39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -5577,7 +5573,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5600,16 +5596,16 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5659,7 +5655,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5671,7 +5667,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
@@ -5691,7 +5687,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5714,13 +5710,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5771,25 +5767,25 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -5803,7 +5799,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5832,7 +5828,7 @@
         <v>95</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>97</v>
@@ -5885,7 +5881,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5903,7 +5899,7 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -5917,11 +5913,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5943,10 +5939,10 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>97</v>
@@ -6001,7 +5997,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6033,7 +6029,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6056,13 +6052,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6113,7 +6109,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -6145,7 +6141,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6168,13 +6164,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6225,7 +6221,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6257,7 +6253,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6280,13 +6276,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6337,7 +6333,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
